--- a/public/uploads/files/employees.xlsx
+++ b/public/uploads/files/employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EA2A55-F457-44CB-9FD2-E018D9012CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A584A2-3D1A-4B5E-B33B-52E3D978FA49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D58EA397-1A6E-3540-B1DF-6344CBD5E069}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>emp_id</t>
   </si>
@@ -133,6 +133,42 @@
   </si>
   <si>
     <t>U Ba</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Father_PhoneExperience</t>
+  </si>
+  <si>
+    <t>Exp_salary</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Bamar</t>
+  </si>
+  <si>
+    <t>aso@gmail.com</t>
+  </si>
+  <si>
+    <t>nhl@gmail.com</t>
+  </si>
+  <si>
+    <t>kzt@gmail.com</t>
+  </si>
+  <si>
+    <t>wwa@gmail.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>နေ</t>
   </si>
 </sst>
 </file>
@@ -140,12 +176,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,14 +212,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CDA051-0F44-8F4D-B926-A0A47144B5EF}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -499,7 +546,7 @@
     <col min="13" max="14" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +601,23 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>190401</v>
       </c>
@@ -610,8 +672,26 @@
       <c r="R2" t="s">
         <v>28</v>
       </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2">
+        <v>9459343453</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2">
+        <v>300000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>190402</v>
       </c>
@@ -666,8 +746,26 @@
       <c r="R3" t="s">
         <v>28</v>
       </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3">
+        <v>9685424567</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3">
+        <v>300000</v>
+      </c>
+      <c r="X3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>190403</v>
       </c>
@@ -722,8 +820,26 @@
       <c r="R4" t="s">
         <v>28</v>
       </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4">
+        <v>9456575788</v>
+      </c>
+      <c r="V4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4">
+        <v>200000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>190404</v>
       </c>
@@ -778,9 +894,33 @@
       <c r="R5" t="s">
         <v>28</v>
       </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5">
+        <v>9457346432</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5">
+        <v>200000</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{F04E7AF2-4583-427E-824F-5C0AA22EB618}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{C383A568-3D09-4D58-9061-727EBC5F914F}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{AF9E6855-1C55-41D0-9A22-252768FB6AC2}"/>
+    <hyperlink ref="T5" r:id="rId4" xr:uid="{144F3BCA-DAA3-46A7-87FF-259C8007B037}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/public/uploads/files/employees.xlsx
+++ b/public/uploads/files/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A584A2-3D1A-4B5E-B33B-52E3D978FA49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFC76E-67AD-403B-9FF1-850BF682C839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D58EA397-1A6E-3540-B1DF-6344CBD5E069}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>emp_id</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Father_PhoneExperience</t>
-  </si>
-  <si>
     <t>Exp_salary</t>
   </si>
   <si>
@@ -169,6 +166,24 @@
   </si>
   <si>
     <t>နေ</t>
+  </si>
+  <si>
+    <t>09400887799</t>
+  </si>
+  <si>
+    <t>09685674540</t>
+  </si>
+  <si>
+    <t>09676563533</t>
+  </si>
+  <si>
+    <t>09687321471</t>
+  </si>
+  <si>
+    <t>Father_Phone</t>
+  </si>
+  <si>
+    <t>Experience</t>
   </si>
 </sst>
 </file>
@@ -216,10 +231,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,13 +553,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CDA051-0F44-8F4D-B926-A0A47144B5EF}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="11" style="3"/>
     <col min="13" max="14" width="11" style="1"/>
+    <col min="21" max="21" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -568,7 +586,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -608,13 +626,16 @@
         <v>37</v>
       </c>
       <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>39</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -639,8 +660,8 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>9400887799</v>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="I2">
         <v>7</v>
@@ -673,22 +694,22 @@
         <v>28</v>
       </c>
       <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="U2">
         <v>9459343453</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2">
         <v>300000</v>
       </c>
       <c r="X2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -713,8 +734,8 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="H3">
-        <v>9685674540</v>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I3">
         <v>7</v>
@@ -747,22 +768,22 @@
         <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3">
         <v>9685424567</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3">
         <v>300000</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -787,8 +808,8 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4">
-        <v>9676563533</v>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -821,22 +842,22 @@
         <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U4">
         <v>9456575788</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4">
         <v>200000</v>
       </c>
       <c r="X4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -861,8 +882,8 @@
       <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="H5">
-        <v>9687321471</v>
+      <c r="H5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="I5">
         <v>7</v>
@@ -895,22 +916,22 @@
         <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U5">
         <v>9457346432</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5">
         <v>200000</v>
       </c>
       <c r="X5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/files/employees.xlsx
+++ b/public/uploads/files/employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\linn-hr\public\uploads\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBFC76E-67AD-403B-9FF1-850BF682C839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E84E9-55D8-45DC-A945-50748E8878DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D58EA397-1A6E-3540-B1DF-6344CBD5E069}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>emp_id</t>
   </si>
@@ -78,112 +78,67 @@
     <t>Township</t>
   </si>
   <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Kha Tha Kha</t>
-  </si>
-  <si>
     <t>HO</t>
   </si>
   <si>
-    <t>R n D</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Aung Soe Oo</t>
-  </si>
-  <si>
-    <t>U Aung</t>
-  </si>
-  <si>
-    <t>pyinmana</t>
-  </si>
-  <si>
-    <t>naypyidaw</t>
-  </si>
-  <si>
-    <t>B.C.SC</t>
-  </si>
-  <si>
-    <t>Nay Htet Linn</t>
-  </si>
-  <si>
-    <t>Khaing Zin Thant</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Wai Wai Aung</t>
-  </si>
-  <si>
-    <t>U Maung</t>
-  </si>
-  <si>
-    <t>U Mya</t>
-  </si>
-  <si>
-    <t>U Ba</t>
-  </si>
-  <si>
     <t>Religion</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Exp_salary</t>
-  </si>
-  <si>
     <t>Hostel</t>
   </si>
   <si>
-    <t>Bamar</t>
-  </si>
-  <si>
-    <t>aso@gmail.com</t>
-  </si>
-  <si>
-    <t>nhl@gmail.com</t>
-  </si>
-  <si>
-    <t>kzt@gmail.com</t>
-  </si>
-  <si>
-    <t>wwa@gmail.com</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>နေ</t>
-  </si>
-  <si>
-    <t>09400887799</t>
-  </si>
-  <si>
-    <t>09685674540</t>
-  </si>
-  <si>
-    <t>09676563533</t>
-  </si>
-  <si>
-    <t>09687321471</t>
-  </si>
-  <si>
     <t>Father_Phone</t>
   </si>
   <si>
-    <t>Experience</t>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>marrical_status</t>
+  </si>
+  <si>
+    <t>050503</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>UAung Min Htwe</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>U Thein Aung</t>
+  </si>
+  <si>
+    <t>0943588444</t>
+  </si>
+  <si>
+    <t>MA MA NA</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -193,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,6 +164,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Pyidaungsu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,20 +191,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5EC3BE65-2AA4-45CF-9790-973D3CACCBA5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,20 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CDA051-0F44-8F4D-B926-A0A47144B5EF}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="11" style="3"/>
-    <col min="13" max="14" width="11" style="1"/>
-    <col min="21" max="21" width="20.875" customWidth="1"/>
+    <col min="2" max="3" width="11" style="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +597,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -617,331 +616,94 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="20.25" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8">
+        <v>27867</v>
+      </c>
+      <c r="N2" s="8">
+        <v>38477</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>190401</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>123456</v>
-      </c>
-      <c r="M2" s="1">
-        <v>35065</v>
-      </c>
-      <c r="N2" s="1">
-        <v>43466</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2">
-        <v>9459343453</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2">
-        <v>300000</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>190402</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>123456</v>
-      </c>
-      <c r="M3" s="1">
-        <v>35065</v>
-      </c>
-      <c r="N3" s="1">
-        <v>43809</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3">
-        <v>9685424567</v>
-      </c>
-      <c r="V3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3">
-        <v>300000</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I4" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>190403</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>123456</v>
-      </c>
-      <c r="M4" s="1">
-        <v>35065</v>
-      </c>
-      <c r="N4" s="1">
-        <v>43809</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4">
-        <v>9456575788</v>
-      </c>
-      <c r="V4" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4">
-        <v>200000</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>190404</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5">
-        <v>123456</v>
-      </c>
-      <c r="M5" s="1">
-        <v>35065</v>
-      </c>
-      <c r="N5" s="1">
-        <v>43809</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5">
-        <v>9457346432</v>
-      </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5">
-        <v>200000</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{F04E7AF2-4583-427E-824F-5C0AA22EB618}"/>
-    <hyperlink ref="T3" r:id="rId2" xr:uid="{C383A568-3D09-4D58-9061-727EBC5F914F}"/>
-    <hyperlink ref="T4" r:id="rId3" xr:uid="{AF9E6855-1C55-41D0-9A22-252768FB6AC2}"/>
-    <hyperlink ref="T5" r:id="rId4" xr:uid="{144F3BCA-DAA3-46A7-87FF-259C8007B037}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>